--- a/S04PF1/Pruebas Unitarias del Sistema.xlsx
+++ b/S04PF1/Pruebas Unitarias del Sistema.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e7e8801b2c68bfc/- Tecnicatura en Desarrollo de Software/1er Año/2do Cuatrimestre/4 (Jueves) - Modelado y Diseño de Software/Proyecto Integrador/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e7e8801b2c68bfc/Documentos/IFTSPOO/S04PF1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_F25DC773A252ABDACC10488A799A75F85BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82729AE1-7C6E-4811-BBE9-45E2B330715A}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC10488A799A75F85BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6D19844-9CB0-4DAF-BCAC-8B00F5F8323D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AltaDeSocio" sheetId="1" r:id="rId1"/>
-    <sheet name="Alta Actividad" sheetId="2" r:id="rId2"/>
-    <sheet name="Pago de Cuota" sheetId="3" r:id="rId3"/>
-    <sheet name="Entrega de Carnet" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
+    <sheet name="AltaDeSocio" sheetId="1" r:id="rId2"/>
+    <sheet name="Alta Actividad" sheetId="2" r:id="rId3"/>
+    <sheet name="Pago de Cuota" sheetId="3" r:id="rId4"/>
+    <sheet name="Entrega de Carnet" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -263,14 +264,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -278,8 +276,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,9 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -312,6 +312,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>646952</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1152B8EA-08D4-EA0A-8A6B-D09CE81F2733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="381000"/>
+          <a:ext cx="5980952" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -426,7 +475,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -761,7 +810,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -876,7 +925,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1193,10 +1242,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EAEE61-278B-4888-BB8B-0CF68190CB4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -1206,84 +1270,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>123456</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>123456</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1306,81 +1370,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D287FC8-2B6C-4B87-BB26-001C5AB86A52}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>14</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>13</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>14</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>18</v>
       </c>
     </row>
@@ -1390,128 +1454,128 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>45247</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>475</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="9">
         <v>2</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>14</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>14</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1526,81 +1590,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901AF671-0014-4D1E-9EEB-B49E083F6FA1}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>18</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>45247</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>475</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +1683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8D5F9E-588A-4EC4-AC0C-52F7E9920403}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1630,58 +1694,58 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="9">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
